--- a/biology/Histoire de la zoologie et de la botanique/Hubert_Saint_Girons/Hubert_Saint_Girons.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hubert_Saint_Girons/Hubert_Saint_Girons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hubert Saint Girons né à Paris le 13 mai 1926 et décédé le 18 avril 2000 à son domicile situé à Bohallard, sur la commune de Puceul (Loire-Atlantique), est un histologiste et herpétologiste français, directeur de recherche au CNRS, spécialiste des Viperidae européens et des Sphenodontidae. Il a également étudié les lézards et serpents du monde entier lors de nombreuses missions à l’étranger ou dans les Territoires d'outre mer : Maroc, Cambodge, Nouvelle-Calédonie, Californie, Australie et Nouvelle-Zélande...
 Admis comme membre en 1946, il devient président de la Société zoologique de France en 1987-1988.
-Il est élu membre honoraire de la Royal Society of New Zealand en 1978[1].
-Deux espèces ont été nommées en son honneur : Laticauda saintgironsi en 2005 et Oligodon saintgironsi en 2008[2].
-Il a publié près de 200 articles ; ses principaux sujets d’études sont la thermorégulation des reptiles, l’organe de Jacobson, l’écologie des serpents marins, la morphologie comparative de l’hypophyse des squamates, les rythmes d’activité circadiens chez les reptiles[3].
-Outre leur histologie, H. Saint Girons a également étudié la thermorégulation chez les sphénodons dans des populations sauvages en Nouvelle-Zélande et leur cycle reproducteur[4].
+Il est élu membre honoraire de la Royal Society of New Zealand en 1978.
+Deux espèces ont été nommées en son honneur : Laticauda saintgironsi en 2005 et Oligodon saintgironsi en 2008.
+Il a publié près de 200 articles ; ses principaux sujets d’études sont la thermorégulation des reptiles, l’organe de Jacobson, l’écologie des serpents marins, la morphologie comparative de l’hypophyse des squamates, les rythmes d’activité circadiens chez les reptiles.
+Outre leur histologie, H. Saint Girons a également étudié la thermorégulation chez les sphénodons dans des populations sauvages en Nouvelle-Zélande et leur cycle reproducteur.
 Il a souvent accompagné son épouse Marie-Charlotte Saint Girons, mammologiste dans ses missions, notamment dans le Haut Atlas marocain et en Nouvelle-Zélande.
 </t>
         </is>
@@ -517,10 +529,12 @@
           <t>Parcours professionnel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La carrière d'Hubert Saint Girons est étroitement liée à celle de Marie-Charlotte Saint Girons, chacun participant aux recherches de l’autre et nombre de leurs travaux sont cosignés. Étudiants à Rennes dans les dernières années de la Seconde Guerre mondiale, ils s’y sont mariés en 1945. Pendant les cinquante années suivantes, ils ont partagé un laboratoire, tout d’abord à Paris, au Laboratoire d’évolution des êtres organisés, Boulevard Raspail, sous la direction de Pierre-Paul Grassé, puis au Laboratoire d’écologie du Muséum national d'histoire naturelle de Brunoy, mais ils travaillent en extérieur six mois de l’année, entre deux périodes d’hibernation des sujets de leurs études, grâce aux terrariums installés dans le parc de la maison familiale de Bohallard, dans la Loire-Atlantique. En 1969, ils quittent Brunoy. Hubert reprend le laboratoire de l’histologiste Manfred Gabe, Boulevard Raspail.
-Le couple Saint Girons participe en 1989 au 1er Congrès mondial d'Herpétologie tenu à l'Université du Kent à Canterbury (Grande-Bretagne)[4].
+Le couple Saint Girons participe en 1989 au 1er Congrès mondial d'Herpétologie tenu à l'Université du Kent à Canterbury (Grande-Bretagne).
 </t>
         </is>
       </c>
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
